--- a/import/datastore/spesenzettel.xlsx
+++ b/import/datastore/spesenzettel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lolo/git/emploji-bot/import/datastore/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HocusFocus\dev\emploji-bot\import\datastore\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blatt1!$A$4:$K$55</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="54">
   <si>
     <t>ski</t>
   </si>
@@ -182,12 +182,27 @@
   <si>
     <t>31. Juli 2017</t>
   </si>
+  <si>
+    <t>29.7.2017 - 30.7.2017</t>
+  </si>
+  <si>
+    <t>Flug nach Köln</t>
+  </si>
+  <si>
+    <t>JavaScript Kurs</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;CHF&quot;\ #,##0.00;[Red]&quot;CHF&quot;\ \-#,##0.00"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -360,7 +375,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -372,6 +387,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -464,6 +480,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -485,7 +504,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1" descr="arben-blau"/>
+        <xdr:cNvPr id="2049" name="Picture 1" descr="arben-blau">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -514,7 +539,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -540,7 +565,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2" descr="arben-blau"/>
+        <xdr:cNvPr id="2050" name="Picture 2" descr="arben-blau">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -569,7 +600,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -595,7 +626,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2051" name="Picture 3" descr="arben-blau"/>
+        <xdr:cNvPr id="2051" name="Picture 3" descr="arben-blau">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -624,7 +661,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -652,6 +689,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2055" name="Picture 7" descr="arben-rot">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -681,7 +723,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -709,6 +751,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2056" name="Picture 8" descr="arben-rot">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -738,7 +785,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -766,6 +813,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2057" name="Picture 9" descr="arben-rot">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -795,7 +847,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -821,7 +873,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2058" name="Picture 10" descr="aver"/>
+        <xdr:cNvPr id="2058" name="Picture 10" descr="aver">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -850,7 +908,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -878,6 +936,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2059" name="Picture 11" descr="arben-blau">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -907,7 +970,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -933,7 +996,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2060" name="Picture 12" descr="arben-rot"/>
+        <xdr:cNvPr id="2060" name="Picture 12" descr="arben-rot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -962,7 +1031,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -990,6 +1059,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2061" name="Picture 13" descr="arben-rot">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1019,7 +1093,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1047,6 +1121,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2062" name="Picture 14" descr="arben-blau">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1076,7 +1155,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1104,6 +1183,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2063" name="Picture 15" descr="arben-schwwarz">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1133,7 +1217,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1159,7 +1243,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2064" name="Picture 16" descr="aver"/>
+        <xdr:cNvPr id="2064" name="Picture 16" descr="aver">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1188,7 +1278,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1216,6 +1306,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2065" name="Picture 17" descr="arben-blau">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1245,7 +1340,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1271,7 +1366,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2066" name="Picture 18" descr="arben-rot"/>
+        <xdr:cNvPr id="2066" name="Picture 18" descr="arben-rot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1300,7 +1401,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1326,7 +1427,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2067" name="Picture 19" descr="arben-schwwarz"/>
+        <xdr:cNvPr id="2067" name="Picture 19" descr="arben-schwwarz">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1355,7 +1462,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1381,7 +1488,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2068" name="Picture 20" descr="aver"/>
+        <xdr:cNvPr id="2068" name="Picture 20" descr="aver">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1410,7 +1523,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1438,6 +1551,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2069" name="Picture 21" descr="arben-blau">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1467,7 +1585,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1493,7 +1611,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2070" name="Picture 22" descr="arben-rot"/>
+        <xdr:cNvPr id="2070" name="Picture 22" descr="arben-rot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1522,7 +1646,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1548,7 +1672,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2071" name="Picture 23" descr="arben-schwwarz"/>
+        <xdr:cNvPr id="2071" name="Picture 23" descr="arben-schwwarz">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1577,7 +1707,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1605,6 +1735,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2072" name="Picture 24" descr="arben-blau">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1634,7 +1769,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1660,7 +1795,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2073" name="Picture 25" descr="arben-rot"/>
+        <xdr:cNvPr id="2073" name="Picture 25" descr="arben-rot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1689,7 +1830,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1715,7 +1856,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2074" name="Picture 26" descr="arben-schwwarz"/>
+        <xdr:cNvPr id="2074" name="Picture 26" descr="arben-schwwarz">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1744,7 +1891,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1772,6 +1919,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2075" name="Picture 27" descr="arben-blau">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1801,7 +1953,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1829,6 +1981,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2076" name="Picture 28" descr="arben-rot">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1858,7 +2015,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1886,6 +2043,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2077" name="Picture 29" descr="arben-schwwarz">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1915,7 +2077,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1941,7 +2103,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2078" name="Picture 30" descr="aver"/>
+        <xdr:cNvPr id="2078" name="Picture 30" descr="aver">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1970,7 +2138,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1998,6 +2166,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2079" name="Picture 31" descr="arben-blau">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2027,7 +2200,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2053,7 +2226,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2080" name="Picture 32" descr="arben-rot"/>
+        <xdr:cNvPr id="2080" name="Picture 32" descr="arben-rot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2082,7 +2261,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2108,7 +2287,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2081" name="Picture 33" descr="arben-schwwarz"/>
+        <xdr:cNvPr id="2081" name="Picture 33" descr="arben-schwwarz">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2137,7 +2322,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2163,7 +2348,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2082" name="Picture 34" descr="aver"/>
+        <xdr:cNvPr id="2082" name="Picture 34" descr="aver">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2192,7 +2383,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2220,6 +2411,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2083" name="Picture 35" descr="arben-blau">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2249,7 +2445,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2275,7 +2471,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2084" name="Picture 36" descr="arben-rot"/>
+        <xdr:cNvPr id="2084" name="Picture 36" descr="arben-rot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2304,7 +2506,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2330,7 +2532,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2085" name="Picture 37" descr="arben-schwwarz"/>
+        <xdr:cNvPr id="2085" name="Picture 37" descr="arben-schwwarz">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2359,7 +2567,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2387,6 +2595,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2086" name="Picture 38" descr="arben-blau">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2416,7 +2629,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2442,7 +2655,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2087" name="Picture 39" descr="arben-rot"/>
+        <xdr:cNvPr id="2087" name="Picture 39" descr="arben-rot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2471,7 +2690,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2497,7 +2716,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2088" name="Picture 40" descr="arben-schwwarz"/>
+        <xdr:cNvPr id="2088" name="Picture 40" descr="arben-schwwarz">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2526,7 +2751,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2554,6 +2779,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2089" name="Picture 41" descr="arben-blau">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2583,7 +2813,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2611,6 +2841,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2090" name="Picture 42" descr="arben-rot">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2640,7 +2875,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2668,6 +2903,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2091" name="Picture 43" descr="arben-schwwarz">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B080000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2697,7 +2937,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3036,15 +3276,15 @@
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="13" max="25" width="2.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="26">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
@@ -3052,12 +3292,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3139,7 +3379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -3217,7 +3457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -3286,12 +3526,25 @@
         <v>{"user":"meyerchri","datum":"31. Juli 2017","betrag":"120","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""},</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="11">
+        <v>11.22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
       <c r="M6" t="str">
         <f t="shared" ref="M6:M55" si="3">"{"</f>
         <v>{</v>
@@ -3302,59 +3555,69 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ref="O6:O55" si="5">IF(O$4=0,N6,N6&amp;IF(ISBLANK(N$3),"",",")&amp;""""&amp;B$4&amp;""":"&amp;IF(O$3=1,""""&amp;B6&amp;"""",IF(O$3=2,IF(B6=1,"true", "false"),B6))&amp;IF(ISBLANK(P$3),"},",""))</f>
-        <v>{"user":"david","datum":""</v>
+        <v>{"user":"david","datum":"29.7.2017 - 30.7.2017"</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" ref="P6:P55" si="6">IF(P$4=0,O6,O6&amp;IF(ISBLANK(O$3),"",",")&amp;""""&amp;C$4&amp;""":"&amp;IF(P$3=1,""""&amp;C6&amp;"""",IF(P$3=2,IF(C6=1,"true", "false"),C6))&amp;IF(ISBLANK(Q$3),"},",""))</f>
-        <v>{"user":"david","datum":"","betrag":""</v>
+        <v>{"user":"david","datum":"29.7.2017 - 30.7.2017","betrag":"11.22"</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" ref="Q6:Q55" si="7">IF(Q$4=0,P6,P6&amp;IF(ISBLANK(P$3),"",",")&amp;""""&amp;D$4&amp;""":"&amp;IF(Q$3=1,""""&amp;D6&amp;"""",IF(Q$3=2,IF(D6=1,"true", "false"),D6))&amp;IF(ISBLANK(R$3),"},",""))</f>
-        <v>{"user":"david","datum":"","betrag":"","beschreibung":""</v>
+        <v>{"user":"david","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln"</v>
       </c>
       <c r="R6" t="str">
         <f t="shared" ref="R6:R55" si="8">IF(R$4=0,Q6,Q6&amp;IF(ISBLANK(Q$3),"",",")&amp;""""&amp;E$4&amp;""":"&amp;IF(R$3=1,""""&amp;E6&amp;"""",IF(R$3=2,IF(E6=1,"true", "false"),E6))&amp;IF(ISBLANK(S$3),"},",""))</f>
-        <v>{"user":"david","datum":"","betrag":"","beschreibung":"","begruendung":""</v>
+        <v>{"user":"david","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs"</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" ref="S6:S55" si="9">IF(S$4=0,R6,R6&amp;IF(ISBLANK(R$3),"",",")&amp;""""&amp;F$4&amp;""":"&amp;IF(S$3=1,""""&amp;F6&amp;"""",IF(S$3=2,IF(F6=1,"true", "false"),F6))&amp;IF(ISBLANK(T$3),"},",""))</f>
-        <v>{"user":"david","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":""</v>
+        <v>{"user":"david","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport"</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" ref="T6:T55" si="10">IF(T$4=0,S6,S6&amp;IF(ISBLANK(S$3),"",",")&amp;""""&amp;G$4&amp;""":"&amp;IF(T$3=1,""""&amp;G6&amp;"""",IF(T$3=2,IF(G6=1,"true", "false"),G6))&amp;IF(ISBLANK(U$3),"},",""))</f>
-        <v>{"user":"david","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"david","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" ref="U6:Y55" si="11">IF(U$4=0,T6,T6&amp;IF(ISBLANK(T$3),"",",")&amp;""""&amp;H$4&amp;""":"&amp;IF(U$3=1,""""&amp;H6&amp;"""",IF(U$3=2,IF(H6=1,"true", "false"),H6))&amp;IF(ISBLANK(V$3),"},",""))</f>
-        <v>{"user":"david","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"david","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"david","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"david","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"david","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"david","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"david","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"david","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"david","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"david","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="Z6" t="str">
         <f>IF(ISBLANK(A6),"",Y6&amp;"}"&amp;IF(OR(Z7="]",Z7="",ISBLANK(Z7)),"",","))</f>
-        <v>{"user":"david","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+        <v>{"user":"david","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="11">
+        <v>11.22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
       <c r="M7" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -3369,54 +3632,66 @@
       </c>
       <c r="P7" t="str">
         <f t="shared" si="6"/>
-        <v>{"user":"remostrupler","datum":"","betrag":""</v>
+        <v>{"user":"remostrupler","datum":"","betrag":"11.22"</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="7"/>
-        <v>{"user":"remostrupler","datum":"","betrag":"","beschreibung":""</v>
+        <v>{"user":"remostrupler","datum":"","betrag":"11.22","beschreibung":"Flug nach Köln"</v>
       </c>
       <c r="R7" t="str">
         <f t="shared" si="8"/>
-        <v>{"user":"remostrupler","datum":"","betrag":"","beschreibung":"","begruendung":""</v>
+        <v>{"user":"remostrupler","datum":"","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs"</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="9"/>
-        <v>{"user":"remostrupler","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":""</v>
+        <v>{"user":"remostrupler","datum":"","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport"</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="10"/>
-        <v>{"user":"remostrupler","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"remostrupler","datum":"","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"remostrupler","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"remostrupler","datum":"","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"remostrupler","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"remostrupler","datum":"","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"remostrupler","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"remostrupler","datum":"","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"remostrupler","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"remostrupler","datum":"","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"remostrupler","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"remostrupler","datum":"","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="Z7" t="str">
         <f t="shared" ref="Z7:Z55" si="12">IF(ISBLANK(A7),"",Y7&amp;"}"&amp;IF(OR(Z8="]",Z8="",ISBLANK(Z8)),"",","))</f>
-        <v>{"user":"remostrupler","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+        <v>{"user":"remostrupler","datum":"","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
       <c r="M8" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -3427,58 +3702,67 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" si="5"/>
-        <v>{"user":"susanne_s","datum":""</v>
+        <v>{"user":"susanne_s","datum":"29.7.2017 - 30.7.2017"</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="6"/>
-        <v>{"user":"susanne_s","datum":"","betrag":""</v>
+        <v>{"user":"susanne_s","datum":"29.7.2017 - 30.7.2017","betrag":""</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="7"/>
-        <v>{"user":"susanne_s","datum":"","betrag":"","beschreibung":""</v>
+        <v>{"user":"susanne_s","datum":"29.7.2017 - 30.7.2017","betrag":"","beschreibung":"Flug nach Köln"</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="8"/>
-        <v>{"user":"susanne_s","datum":"","betrag":"","beschreibung":"","begruendung":""</v>
+        <v>{"user":"susanne_s","datum":"29.7.2017 - 30.7.2017","betrag":"","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs"</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="9"/>
-        <v>{"user":"susanne_s","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":""</v>
+        <v>{"user":"susanne_s","datum":"29.7.2017 - 30.7.2017","betrag":"","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport"</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="10"/>
-        <v>{"user":"susanne_s","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"susanne_s","datum":"29.7.2017 - 30.7.2017","betrag":"","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"susanne_s","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"susanne_s","datum":"29.7.2017 - 30.7.2017","betrag":"","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"susanne_s","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"susanne_s","datum":"29.7.2017 - 30.7.2017","betrag":"","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"susanne_s","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"susanne_s","datum":"29.7.2017 - 30.7.2017","betrag":"","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"susanne_s","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"susanne_s","datum":"29.7.2017 - 30.7.2017","betrag":"","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"susanne_s","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"susanne_s","datum":"29.7.2017 - 30.7.2017","betrag":"","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="12"/>
-        <v>{"user":"susanne_s","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <v>{"user":"susanne_s","datum":"29.7.2017 - 30.7.2017","betrag":"","beschreibung":"Flug nach Köln","begruendung":"JavaScript Kurs","kategorie":"Transport","kostenstelle":""},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="11">
+        <v>11.22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="M9" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -3489,54 +3773,54 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" si="5"/>
-        <v>{"user":"lorenz-haenggi","datum":""</v>
+        <v>{"user":"lorenz-haenggi","datum":"29.7.2017 - 30.7.2017"</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="6"/>
-        <v>{"user":"lorenz-haenggi","datum":"","betrag":""</v>
+        <v>{"user":"lorenz-haenggi","datum":"29.7.2017 - 30.7.2017","betrag":"11.22"</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="7"/>
-        <v>{"user":"lorenz-haenggi","datum":"","betrag":"","beschreibung":""</v>
+        <v>{"user":"lorenz-haenggi","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln"</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="8"/>
-        <v>{"user":"lorenz-haenggi","datum":"","betrag":"","beschreibung":"","begruendung":""</v>
+        <v>{"user":"lorenz-haenggi","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":""</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="9"/>
-        <v>{"user":"lorenz-haenggi","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":""</v>
+        <v>{"user":"lorenz-haenggi","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"","kategorie":""</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="10"/>
-        <v>{"user":"lorenz-haenggi","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"lorenz-haenggi","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"","kategorie":"","kostenstelle":""</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"lorenz-haenggi","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"lorenz-haenggi","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"","kategorie":"","kostenstelle":""</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"lorenz-haenggi","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"lorenz-haenggi","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"","kategorie":"","kostenstelle":""</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"lorenz-haenggi","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"lorenz-haenggi","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"","kategorie":"","kostenstelle":""</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"lorenz-haenggi","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"lorenz-haenggi","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"","kategorie":"","kostenstelle":""</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="11"/>
-        <v>{"user":"lorenz-haenggi","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""</v>
+        <v>{"user":"lorenz-haenggi","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"","kategorie":"","kostenstelle":""</v>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="12"/>
-        <v>{"user":"lorenz-haenggi","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <v>{"user":"lorenz-haenggi","datum":"29.7.2017 - 30.7.2017","betrag":"11.22","beschreibung":"Flug nach Köln","begruendung":"","kategorie":"","kostenstelle":""},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -3598,7 +3882,7 @@
         <v>{"user":"cogji","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""},</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -3660,7 +3944,7 @@
         <v>{"user":"brm","datum":"","betrag":"","beschreibung":"","begruendung":"","kategorie":"","kostenstelle":""}</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26">
       <c r="M12" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -3718,7 +4002,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26">
       <c r="M13" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -3776,7 +4060,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26">
       <c r="M14" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -3834,7 +4118,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26">
       <c r="M15" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -3892,7 +4176,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26">
       <c r="M16" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -3950,7 +4234,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="13:26">
       <c r="M17" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4008,7 +4292,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="13:26">
       <c r="M18" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4066,7 +4350,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="13:26">
       <c r="M19" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4124,7 +4408,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="13:26">
       <c r="M20" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4182,7 +4466,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="13:26">
       <c r="M21" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4240,7 +4524,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="13:26">
       <c r="M22" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4298,7 +4582,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="13:26">
       <c r="M23" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4356,7 +4640,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="13:26">
       <c r="M24" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4414,7 +4698,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="13:26">
       <c r="M25" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4472,7 +4756,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="13:26">
       <c r="M26" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4530,7 +4814,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="13:26">
       <c r="M27" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4588,7 +4872,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="13:26">
       <c r="M28" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4646,7 +4930,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="13:26">
       <c r="M29" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4704,7 +4988,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="13:26">
       <c r="M30" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4762,7 +5046,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="13:26">
       <c r="M31" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4820,7 +5104,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="13:26">
       <c r="M32" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4878,7 +5162,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="13:26">
       <c r="M33" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4936,7 +5220,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="13:26">
       <c r="M34" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -4994,7 +5278,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="13:26">
       <c r="M35" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5052,7 +5336,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="13:26">
       <c r="M36" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5110,7 +5394,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="13:26">
       <c r="M37" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5168,7 +5452,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="13:26">
       <c r="M38" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5226,7 +5510,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="13:26">
       <c r="M39" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5284,7 +5568,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="13:26">
       <c r="M40" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5342,7 +5626,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="13:26">
       <c r="M41" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5400,7 +5684,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="13:26">
       <c r="M42" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5458,7 +5742,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="13:26">
       <c r="M43" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5516,7 +5800,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="13:26">
       <c r="M44" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5574,7 +5858,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="13:26">
       <c r="M45" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5632,7 +5916,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="13:26">
       <c r="M46" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5690,7 +5974,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="13:26">
       <c r="M47" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5748,7 +6032,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="13:26">
       <c r="M48" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5806,7 +6090,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="13:26">
       <c r="M49" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5864,7 +6148,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="13:26">
       <c r="M50" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5922,7 +6206,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="13:26">
       <c r="M51" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -5980,7 +6264,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="13:26">
       <c r="M52" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -6038,7 +6322,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="13:26">
       <c r="M53" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -6096,7 +6380,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="13:26">
       <c r="M54" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -6154,7 +6438,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="13:26">
       <c r="M55" t="str">
         <f t="shared" si="3"/>
         <v>{</v>
@@ -6212,7 +6496,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="13:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="13:26">
       <c r="Z56" s="5" t="s">
         <v>32</v>
       </c>
@@ -6232,12 +6516,12 @@
       <selection activeCell="S22" sqref="S22:W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="18">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6298,7 +6582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="17.5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -6359,7 +6643,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="17.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -6420,7 +6704,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="17.5">
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
         <v>4</v>
@@ -6460,7 +6744,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="17.5">
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
@@ -6500,7 +6784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="18">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -6521,7 +6805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="18">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -6563,7 +6847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="18">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -6624,7 +6908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="17.5">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -6685,7 +6969,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="17.5">
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>4</v>
@@ -6725,7 +7009,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="17.5">
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>4</v>
@@ -6765,7 +7049,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="17.5">
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
         <v>4</v>
@@ -6786,7 +7070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="18">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -6826,7 +7110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="17.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -6866,7 +7150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="18">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -6925,7 +7209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="17.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -6984,7 +7268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="17.5">
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
         <v>4</v>
@@ -7005,7 +7289,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="18">
       <c r="I18" s="3" t="s">
         <v>20</v>
       </c>
@@ -7045,7 +7329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="18">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -7085,7 +7369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="17.5">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -7108,7 +7392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="18">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -7150,7 +7434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="17.5">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -7192,7 +7476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="18">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -7213,7 +7497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="17.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>4</v>
